--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/91.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/91.xlsx
@@ -479,13 +479,13 @@
         <v>-1.339116552596657</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.43367780210153</v>
+        <v>-10.44093093787585</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.185189795294102</v>
+        <v>-3.184770841603167</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.592713546961183</v>
+        <v>-7.620050275294707</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.212217088589758</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.98633008965647</v>
+        <v>-10.9935570408251</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.274112716195106</v>
+        <v>-3.272436901431365</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.462680795137159</v>
+        <v>-7.488642831672302</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.077643791349983</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.13831863334607</v>
+        <v>-11.14503498470387</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.168353093839642</v>
+        <v>-3.166323786899175</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.078290783704082</v>
+        <v>-7.104082620302282</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.9624103659857405</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.59704674031447</v>
+        <v>-11.6038023685808</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.312276778978737</v>
+        <v>-3.310168918221219</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.779288771404742</v>
+        <v>-6.804740208129058</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.8671466750257607</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.00526474291949</v>
+        <v>-12.01097298695848</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.381168476531899</v>
+        <v>-3.377973954638518</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.498210121695726</v>
+        <v>-6.524015050596767</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.7912461675968608</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.54386898952526</v>
+        <v>-12.54932847981025</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.257603322311689</v>
+        <v>-3.253872016001797</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.173992334123221</v>
+        <v>-6.198265463591781</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.7211154579719645</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.1181104844662</v>
+        <v>-13.12328194408868</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.233880069562481</v>
+        <v>-3.228211102432014</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.004250627780243</v>
+        <v>-6.027410911507256</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.640913460574665</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.53186653117327</v>
+        <v>-13.53640956025935</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.353137856147764</v>
+        <v>-3.347914027313915</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.849486515888199</v>
+        <v>-5.871861261444709</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.5311039094903095</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.23036707238504</v>
+        <v>-14.23746310052526</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.223131288929424</v>
+        <v>-3.216964814290971</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.807368577646366</v>
+        <v>-5.829298184906257</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3797393763572364</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.67045174010682</v>
+        <v>-14.67680150698506</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.301449444528629</v>
+        <v>-3.294418877902622</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.824859894242912</v>
+        <v>-5.847771424215932</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1847804377047775</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.23682476103989</v>
+        <v>-15.24335782015791</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.337400908132009</v>
+        <v>-3.33012158775201</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.549712057721197</v>
+        <v>-5.570450265422491</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04797288799081037</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.31755190036197</v>
+        <v>-15.32464792850219</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.44632886777517</v>
+        <v>-3.44033259307366</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.101719639083014</v>
+        <v>-5.122916077383769</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3035603325943515</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.01657613368741</v>
+        <v>-16.02441842308961</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.129848631182126</v>
+        <v>-3.122962079887378</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.739259234909828</v>
+        <v>-4.76020691945659</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5649822283617426</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.61622978844415</v>
+        <v>-16.62464813917138</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.070697606943208</v>
+        <v>-3.064151455522345</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.683420563289866</v>
+        <v>-4.703726724997384</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.818251135676782</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.38913388670545</v>
+        <v>-17.39827231408897</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.862726376302389</v>
+        <v>-2.854988825322929</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.444067082737431</v>
+        <v>-4.464176859902322</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.050683236118903</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.89570126825751</v>
+        <v>-17.90455166497852</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.737419945804229</v>
+        <v>-2.730546486812323</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.217910643449454</v>
+        <v>-4.239041620236001</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.254571948265567</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.32347917130807</v>
+        <v>-18.33287944474843</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.817152070110341</v>
+        <v>-2.809218134588255</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.13095156797471</v>
+        <v>-4.152174190881148</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.425797748204489</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.90887530827017</v>
+        <v>-18.91948007357196</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.591637153661609</v>
+        <v>-2.583153341420171</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.772772346830768</v>
+        <v>-3.794348461913933</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.561676227809192</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.23119471193062</v>
+        <v>-19.24220533862051</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.35279427292</v>
+        <v>-2.345122183454749</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.414580033383984</v>
+        <v>-3.437596301779739</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.662260896815823</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.9335574824807</v>
+        <v>-19.94565477030645</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.111254377792996</v>
+        <v>-2.103254980756701</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.390215257795532</v>
+        <v>-3.414684771806718</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.727814685347948</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.50888563855751</v>
+        <v>-20.52230524897028</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.903728285448796</v>
+        <v>-1.894812427213581</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.365837389904238</v>
+        <v>-3.390974611360352</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.759295582469717</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.71455262389819</v>
+        <v>-20.72836500339621</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.769610735138154</v>
+        <v>-1.760511584663155</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.209253447917194</v>
+        <v>-3.235896284200107</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.757845500070235</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.25818431479518</v>
+        <v>-21.27344993990863</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.583333450306076</v>
+        <v>-1.576041037623235</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.353648455958592</v>
+        <v>-3.380814984355173</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.723108683688579</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.42948400517632</v>
+        <v>-21.44527332240344</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.394660274053962</v>
+        <v>-1.38766898433648</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.35333424069039</v>
+        <v>-3.378982061957331</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.655433882898853</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.53494250456642</v>
+        <v>-21.54964516065768</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.412976405729536</v>
+        <v>-1.406796838788241</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.553109689752288</v>
+        <v>-3.578482572659553</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.557183585976333</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.61738473556077</v>
+        <v>-21.63285983751969</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.224826921591091</v>
+        <v>-1.216735878434904</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.773898284875156</v>
+        <v>-3.797569168412997</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.433882980277541</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.52983650645815</v>
+        <v>-21.54401547043574</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.18750076618933</v>
+        <v>-1.180876060951417</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.803225043240623</v>
+        <v>-3.826673357630154</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.293702809923791</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.59684291240211</v>
+        <v>-21.61210853751556</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.033090146474013</v>
+        <v>-1.026818933412826</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.116916619328379</v>
+        <v>-4.140652964380429</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.146676122720826</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.63706246673189</v>
+        <v>-21.65261612250786</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.127027419363397</v>
+        <v>-1.120363437216959</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.302159612235962</v>
+        <v>-4.325123511420349</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.001964242081054</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.4795227866374</v>
+        <v>-21.49495861168779</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.198066254582603</v>
+        <v>-1.1919783337612</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.345010719436931</v>
+        <v>-4.368118633952577</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8658212719441992</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.34942457329917</v>
+        <v>-21.3634595219455</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.287434313780225</v>
+        <v>-1.281005993084938</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.646277700127889</v>
+        <v>-4.668233491993464</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7437231955438905</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.31530603209363</v>
+        <v>-21.33072876484118</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.358276764456805</v>
+        <v>-1.351822259155834</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.556006272034188</v>
+        <v>-4.578682140556058</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6399149374198606</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.92419966930274</v>
+        <v>-20.93998898652987</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.51457267578133</v>
+        <v>-1.50941430846169</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.483985514101853</v>
+        <v>-4.506137690510053</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5576226986597961</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.65973515189988</v>
+        <v>-20.67531499228153</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.538361390044747</v>
+        <v>-1.53254840758302</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.456989185642214</v>
+        <v>-4.480136377066386</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4989824873741893</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.42442719292553</v>
+        <v>-20.4402296024555</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.715028924590998</v>
+        <v>-1.708980280678121</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.339066813946787</v>
+        <v>-4.361074975023729</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4613708967839777</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.13462906952393</v>
+        <v>-20.14956738706634</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.722164229639739</v>
+        <v>-1.716037031909811</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.182914917953521</v>
+        <v>-4.206677447611253</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4378851695168263</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.81378909608459</v>
+        <v>-19.82822990611901</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.793936233818081</v>
+        <v>-1.78808397444783</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.797791737561306</v>
+        <v>-3.819380944947313</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4198195875405107</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.69031558798427</v>
+        <v>-19.70530627473805</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.73643483973722</v>
+        <v>-1.730582580366969</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.463427415286465</v>
+        <v>-3.485435576363406</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3972940151971688</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.3067765762359</v>
+        <v>-19.32091626330497</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.855470057174194</v>
+        <v>-1.847693229286209</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.602506948374121</v>
+        <v>-3.623454632920882</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3630061360401081</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.92194142650621</v>
+        <v>-18.93547886764456</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.706584389258085</v>
+        <v>-1.698480253799057</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.204055803689029</v>
+        <v>-3.225343888109676</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3124623101812929</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.36439261768846</v>
+        <v>-18.37734090519893</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.81789514801844</v>
+        <v>-1.810432535398656</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.116219543923889</v>
+        <v>-3.13882995093155</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.240729629887199</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.01512925477974</v>
+        <v>-18.02764549629643</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.109120332429795</v>
+        <v>-2.101985027381054</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.030687529458893</v>
+        <v>-3.053939459305798</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1459096398126279</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.83023975404888</v>
+        <v>-17.84242868799453</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.226689211948495</v>
+        <v>-2.220090691316265</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.834172063804584</v>
+        <v>-2.856206409487209</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.02739446781415503</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.64215573142464</v>
+        <v>-17.65253792757813</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.154917207770152</v>
+        <v>-2.149444625182311</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.789147634331889</v>
+        <v>-2.811273626134406</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1169447707607552</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.20966459935106</v>
+        <v>-17.21910414969995</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.274240455869644</v>
+        <v>-2.268833334796011</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.59961036609222</v>
+        <v>-2.622194588494198</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2864939401763366</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.26107807261052</v>
+        <v>-17.26857996213883</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.171334955533677</v>
+        <v>-2.164854265627023</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.487291500013052</v>
+        <v>-2.510543429859958</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.4799536924422391</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.13573236520384</v>
+        <v>-17.1431557009151</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.313779210451657</v>
+        <v>-2.307940043384247</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.262693044763242</v>
+        <v>-2.285316544073744</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.6941701518971296</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.68547497817404</v>
+        <v>-16.69353983672454</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.335132756386512</v>
+        <v>-2.329031743262267</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.229058918762847</v>
+        <v>-2.252664340786479</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.9218431938167595</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.38791311918729</v>
+        <v>-16.39398794770585</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.519223626644022</v>
+        <v>-2.51283458285726</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.043252956833071</v>
+        <v>-2.066491794377135</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.157411251843516</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.92944685827572</v>
+        <v>-15.93512891770903</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.632550600042003</v>
+        <v>-2.627104202059845</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.941813794415377</v>
+        <v>-1.964149263063362</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.394800150136228</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.76284730461476</v>
+        <v>-15.76792711811735</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.534044113460856</v>
+        <v>-2.528113300273554</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.882649677873617</v>
+        <v>-1.903597362420379</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.627440375726454</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.29831930748748</v>
+        <v>-15.30265285972809</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.427983368140033</v>
+        <v>-2.422707170094818</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.895951457560811</v>
+        <v>-1.916454003810954</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.854767210534882</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.95557591139393</v>
+        <v>-14.95938577152087</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.635640383512651</v>
+        <v>-2.630377277770276</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.096119675707961</v>
+        <v>-2.117185190980298</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.075476048649969</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.57575511365262</v>
+        <v>-14.57985300444208</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.646821210139485</v>
+        <v>-2.641047504586283</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.129243201897528</v>
+        <v>-2.150217071049973</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.290256874598431</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.66745360275607</v>
+        <v>-14.67157767815121</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.495094512506721</v>
+        <v>-2.490211083546757</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.019529704083863</v>
+        <v>-2.040870157715877</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.503983215592009</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.52473440947841</v>
+        <v>-14.52888466947924</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.645708364397938</v>
+        <v>-2.640968950769233</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.197349361280187</v>
+        <v>-2.217694799896229</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.718746738330257</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.43209327457036</v>
+        <v>-14.43494739658985</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.512729844434526</v>
+        <v>-2.50843556910244</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.538718065575352</v>
+        <v>-2.559076596494236</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.939105224567527</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.09089477021213</v>
+        <v>-14.09347395387195</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.509626968661037</v>
+        <v>-2.505686185505677</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.790260480073435</v>
+        <v>-2.813119640835089</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.170084323950687</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.78212589999286</v>
+        <v>-13.78550371412603</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.559718119333481</v>
+        <v>-2.555476213212762</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.95253957379663</v>
+        <v>-2.974744119416197</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.412636222355529</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.80227495406628</v>
+        <v>-13.80515526069146</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.416527603153523</v>
+        <v>-2.411748912616293</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.114923405942558</v>
+        <v>-3.137219597682018</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.668913027277811</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.62831752620827</v>
+        <v>-13.63231067857499</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.395409718669819</v>
+        <v>-2.390329905167229</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.288239310961328</v>
+        <v>-3.310339118158161</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.936676230892228</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.54359723451946</v>
+        <v>-13.54829737123964</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.475861919632226</v>
+        <v>-2.470022752564816</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.275081546605393</v>
+        <v>-3.295924492729421</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.208378944385103</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.3314102823636</v>
+        <v>-13.33660792659177</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.357284932794713</v>
+        <v>-2.351864719418238</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.360940868641433</v>
+        <v>-3.382189676153554</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.477505755715804</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.23595430234458</v>
+        <v>-13.24231716152566</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.331532373105037</v>
+        <v>-2.325719390643311</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.623860494308976</v>
+        <v>-3.644768901947212</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.732331082710108</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.16384189829235</v>
+        <v>-13.17027021898764</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.39018588983597</v>
+        <v>-2.384215799740143</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.573009990071712</v>
+        <v>-3.593499444019013</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.959091305731326</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.25019872783638</v>
+        <v>-13.25842069402098</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.517600181091648</v>
+        <v>-2.511551537178771</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.524306623500491</v>
+        <v>-3.545044831201785</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.144480373014013</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.31945700986911</v>
+        <v>-13.3279277298077</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.560582211321035</v>
+        <v>-2.553538552392186</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.624894786233472</v>
+        <v>-3.64437613286196</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.274289693123401</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.13717287740376</v>
+        <v>-13.14632439709012</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.361644669641007</v>
+        <v>-2.354456995380899</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.459565185948155</v>
+        <v>-3.479072717182327</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.337394503728901</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.27685465642213</v>
+        <v>-13.28651677591932</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.628688370703694</v>
+        <v>-2.622011296254414</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.416373678873301</v>
+        <v>-3.436902409729127</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.327482829900911</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.18088807659228</v>
+        <v>-13.18976465791897</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.672207185349591</v>
+        <v>-2.665412280174735</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.25275917026025</v>
+        <v>-3.271559717140969</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.243149858115293</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.31067207466231</v>
+        <v>-13.32015090191972</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.735089515898402</v>
+        <v>-2.728307703026387</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.290268617901795</v>
+        <v>-3.311111564025823</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.087278035757979</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.45607519002252</v>
+        <v>-13.46661449381011</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.729603841007718</v>
+        <v>-2.722023397662359</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.189143670752304</v>
+        <v>-3.210680508926943</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.868495001309917</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.69288876382366</v>
+        <v>-13.7039779443306</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.784251113069083</v>
+        <v>-2.776002962278795</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.245597680605826</v>
+        <v>-3.266296611398595</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.597382008928697</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.90863682235246</v>
+        <v>-13.91687188083991</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.862791837816598</v>
+        <v>-2.854281840969476</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.107068024237523</v>
+        <v>-3.128500123989428</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.285737266905102</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.05854368989023</v>
+        <v>-14.06761665575954</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.015736119613642</v>
+        <v>-3.007199938160836</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.761876367512573</v>
+        <v>-2.784774805182752</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.948859527098881</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.53554865162567</v>
+        <v>-14.54401937156427</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.137376705316119</v>
+        <v>-3.128120447207018</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.497804619194958</v>
+        <v>-2.52072924147082</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.598848263893455</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.31726386969946</v>
+        <v>-15.32645466629435</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.35697390088039</v>
+        <v>-3.348411534821901</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.347400244149209</v>
+        <v>-2.370652173996115</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.24426057287626</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.72813960978134</v>
+        <v>-15.73689836038246</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.266165688370178</v>
+        <v>-3.256555938084351</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.348905858976008</v>
+        <v>-2.373820511283812</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.891784879628058</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.15324668305219</v>
+        <v>-16.1601201420441</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.476310241282723</v>
+        <v>-3.466530291059954</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.178548814399468</v>
+        <v>-2.204013343426625</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.540736786144547</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.78650827920364</v>
+        <v>-16.79284495377903</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.626819354751206</v>
+        <v>-3.617091773739803</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.902353593650415</v>
+        <v>-1.92878695308786</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.191561039124398</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.47991591460998</v>
+        <v>-17.48568962016318</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.880142322435764</v>
+        <v>-3.870571849058462</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.923013247534659</v>
+        <v>-1.949485883880629</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.845639078911653</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.31833389629127</v>
+        <v>-18.32481458619793</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.11995403358766</v>
+        <v>-4.110435929421725</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.014685552032425</v>
+        <v>-2.043148218410337</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.501461942200516</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.09618688502674</v>
+        <v>-19.10286395947602</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.34455248883747</v>
+        <v>-4.334693984797651</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.786277236655672</v>
+        <v>-1.81485773375916</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.16557358719684</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.99164803018944</v>
+        <v>-19.99789305864494</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.505548536882176</v>
+        <v>-4.495284171454263</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.805287260381858</v>
+        <v>-1.834456911113224</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.844465645664612</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.19501395358385</v>
+        <v>-21.19921658279604</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.720262303486484</v>
+        <v>-4.709343322916484</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.776143794256176</v>
+        <v>-1.805588383347217</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5464419318990228</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.28395315014157</v>
+        <v>-22.28849617922765</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.77356106835515</v>
+        <v>-4.763362164441446</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.020433072979942</v>
+        <v>-2.049432523774366</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2844790556225079</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.67409386587605</v>
+        <v>-23.67747168000921</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.808399686216983</v>
+        <v>-4.798266243817488</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.037125759103143</v>
+        <v>-2.06721187103343</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0694195216695523</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.02940905605153</v>
+        <v>-25.03289160860743</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.07150260412431</v>
+        <v>-5.061722653901541</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.163047527834864</v>
+        <v>-2.192897978314</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08699830766908456</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.57337123787344</v>
+        <v>-26.57698471345776</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.170375675185026</v>
+        <v>-5.160229140482688</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.374147818854856</v>
+        <v>-2.404940915138595</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1742025999451926</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.10738326953565</v>
+        <v>-28.11061706833755</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.412164324066023</v>
+        <v>-5.400931128227822</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.623739480229522</v>
+        <v>-2.652725838721103</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1850267963348338</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.82040635795277</v>
+        <v>-29.82527669460989</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.559937146240585</v>
+        <v>-5.548874150339326</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.87244086501095</v>
+        <v>-2.902618623061128</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1149796581309084</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.54192635091417</v>
+        <v>-31.54674431835992</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.718052887660111</v>
+        <v>-5.706845876427593</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.305494966106723</v>
+        <v>-3.336000031727945</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03315329641852489</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.1969374454396</v>
+        <v>-33.20323484310647</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.682062147148206</v>
+        <v>-5.671679950994717</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.705648110161238</v>
+        <v>-3.734359530293144</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2518513389878456</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.19402422861366</v>
+        <v>-35.20062274924589</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.89667117532978</v>
+        <v>-5.886341348387657</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.906706604901625</v>
+        <v>-3.93670107071202</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.5288860220830371</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.03155511705559</v>
+        <v>-37.0393057603379</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.228875267635737</v>
+        <v>-6.218218133122572</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.484941252209299</v>
+        <v>-4.513574118524154</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.844682463131897</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.1255511258641</v>
+        <v>-39.13292209236399</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.215403288011601</v>
+        <v>-6.205021091858112</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.821282512213242</v>
+        <v>-4.850059393859356</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.182952542585911</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.38862113357066</v>
+        <v>-41.39734060726325</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.430536008306843</v>
+        <v>-6.419931243005045</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.332746415028113</v>
+        <v>-5.360148604875845</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.51656234494786</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.33246152108742</v>
+        <v>-43.34154757925957</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.539712721703997</v>
+        <v>-6.529121048705041</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.587182228454217</v>
+        <v>-5.612843142024</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.831677022626298</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.44252178548272</v>
+        <v>-45.45211844346571</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.665333367470359</v>
+        <v>-6.655435586522014</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.679757901848062</v>
+        <v>-5.705785399897414</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.097373634377132</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.6132255966409</v>
+        <v>-47.62371253121712</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.810055683082799</v>
+        <v>-6.799699671534993</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.148305235947754</v>
+        <v>-6.173586472735128</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.317776341238705</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.7719499506989</v>
+        <v>-49.78400796161613</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.227687051431018</v>
+        <v>-7.216336024867242</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.581555721586153</v>
+        <v>-6.607452296607088</v>
       </c>
     </row>
   </sheetData>
